--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,117 +40,120 @@
     <t>name</t>
   </si>
   <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
     <t>worse</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>horrible</t>
-  </si>
-  <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>evil</t>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>scary</t>
   </si>
   <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>addicted</t>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>hate</t>
   </si>
   <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>scary</t>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>crazy</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>shocking</t>
-  </si>
-  <si>
-    <t>frightening</t>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>behind</t>
+    <t>black</t>
   </si>
   <si>
     <t>fake</t>
   </si>
   <si>
-    <t>black</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -163,97 +166,91 @@
     <t>great</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
+    <t>live</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
-    <t>right</t>
+    <t>new</t>
   </si>
   <si>
     <t>many</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>much</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
-    <t>real</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
+    <t>documentary</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
     <t>netflix</t>
   </si>
   <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
     <t>dilemma</t>
   </si>
   <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>must</t>
-  </si>
-  <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>documentary</t>
+    <t>watching</t>
   </si>
   <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>[UNK]</t>
   </si>
   <si>
     <t>…</t>
@@ -620,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,10 +625,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -692,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -710,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -739,13 +736,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -757,10 +754,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4">
         <v>0.9444444444444444</v>
@@ -789,13 +786,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -807,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -839,13 +836,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -857,19 +854,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K6">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="L6">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -881,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -889,13 +886,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -907,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K7">
-        <v>0.8070175438596491</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L7">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -931,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -939,13 +936,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9242424242424242</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -957,19 +954,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8">
-        <v>0.7666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -981,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -989,13 +986,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9230769230769231</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C9">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="D9">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1007,19 +1004,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K9">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="M9">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1031,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1060,16 +1057,16 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10">
-        <v>0.6551724137931034</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="L10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M10">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1081,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1089,13 +1086,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8125</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1107,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K11">
-        <v>0.631578947368421</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L11">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M11">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1131,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1139,13 +1136,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1160,16 +1157,16 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K12">
-        <v>0.5866666666666667</v>
+        <v>0.52</v>
       </c>
       <c r="L12">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M12">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1181,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1189,13 +1186,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7894736842105263</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1210,16 +1207,16 @@
         <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K13">
-        <v>0.5333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="L13">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="M13">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1231,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1239,13 +1236,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1260,16 +1257,16 @@
         <v>2</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K14">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1281,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1289,13 +1286,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7647058823529411</v>
+        <v>0.75</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1307,31 +1304,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K15">
-        <v>0.4074074074074074</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L15">
+        <v>8</v>
+      </c>
+      <c r="M15">
+        <v>8</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>11</v>
-      </c>
-      <c r="M15">
-        <v>11</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1360,28 +1357,28 @@
         <v>2</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K16">
-        <v>0.3333333333333333</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L16">
+        <v>11</v>
+      </c>
+      <c r="M16">
+        <v>11</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>16</v>
-      </c>
-      <c r="M16">
-        <v>16</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1389,7 +1386,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6363636363636364</v>
+        <v>0.7</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -1407,19 +1404,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K17">
-        <v>0.303030303030303</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1431,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1439,13 +1436,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.625</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1457,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K18">
-        <v>0.2592592592592592</v>
+        <v>0.25</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M18">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1481,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1489,13 +1486,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.625</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1510,16 +1507,16 @@
         <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K19">
-        <v>0.2195121951219512</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="L19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1531,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1539,13 +1536,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6159420289855072</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C20">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="D20">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1557,13 +1554,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K20">
-        <v>0.2153846153846154</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L20">
         <v>14</v>
@@ -1581,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1589,13 +1586,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6086956521739131</v>
+        <v>0.6</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1607,13 +1604,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K21">
-        <v>0.1525423728813559</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L21">
         <v>9</v>
@@ -1631,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1639,13 +1636,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1657,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K22">
-        <v>0.1475409836065574</v>
+        <v>0.1830985915492958</v>
       </c>
       <c r="L22">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M22">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1681,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1689,37 +1686,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5833333333333334</v>
+        <v>0.5625</v>
       </c>
       <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>7</v>
       </c>
-      <c r="D23">
-        <v>7</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>5</v>
-      </c>
       <c r="J23" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K23">
-        <v>0.1408450704225352</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="L23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1731,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1739,13 +1736,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1757,13 +1754,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K24">
-        <v>0.1304347826086956</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L24">
         <v>6</v>
@@ -1781,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1789,13 +1786,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1807,31 +1804,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K25">
-        <v>0.122151321786691</v>
+        <v>0.1384615384615385</v>
       </c>
       <c r="L25">
-        <v>134</v>
+        <v>9</v>
       </c>
       <c r="M25">
-        <v>135</v>
+        <v>9</v>
       </c>
       <c r="N25">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>963</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1839,13 +1836,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1857,19 +1854,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K26">
-        <v>0.1111111111111111</v>
+        <v>0.1302367941712204</v>
       </c>
       <c r="L26">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>143</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1881,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>48</v>
+        <v>955</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1889,13 +1886,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5128205128205128</v>
+        <v>0.5</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1907,19 +1904,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K27">
-        <v>0.1052631578947368</v>
+        <v>0.08421052631578947</v>
       </c>
       <c r="L27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1931,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1939,13 +1936,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5106382978723404</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1957,19 +1954,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K28">
-        <v>0.08235294117647059</v>
+        <v>0.07420494699646643</v>
       </c>
       <c r="L28">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1981,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>78</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1989,13 +1986,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2007,19 +2004,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K29">
-        <v>0.06851851851851852</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="L29">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="M29">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2031,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>503</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2039,13 +2036,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2057,19 +2054,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K30">
-        <v>0.06666666666666667</v>
+        <v>0.06851851851851852</v>
       </c>
       <c r="L30">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2081,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>294</v>
+        <v>503</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2089,13 +2086,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4761904761904762</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2107,10 +2104,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K31">
         <v>0.06569343065693431</v>
@@ -2139,13 +2136,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4571428571428571</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C32">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2157,19 +2154,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K32">
-        <v>0.06211180124223602</v>
+        <v>0.05421686746987952</v>
       </c>
       <c r="L32">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="M32">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2181,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>151</v>
+        <v>628</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2189,13 +2186,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4285714285714285</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2207,19 +2204,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K33">
-        <v>0.06024096385542169</v>
+        <v>0.05396825396825397</v>
       </c>
       <c r="L33">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="M33">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2231,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>624</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2239,13 +2236,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4117647058823529</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2257,19 +2254,19 @@
         <v>0</v>
       </c>
       <c r="H34">
+        <v>11</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K34">
+        <v>0.02932551319648094</v>
+      </c>
+      <c r="L34">
         <v>10</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K34">
-        <v>0.06007067137809187</v>
-      </c>
-      <c r="L34">
-        <v>17</v>
-      </c>
       <c r="M34">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2281,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>266</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2289,13 +2286,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3928571428571428</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C35">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D35">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2307,19 +2304,19 @@
         <v>0</v>
       </c>
       <c r="H35">
+        <v>10</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K35">
+        <v>0.0275974025974026</v>
+      </c>
+      <c r="L35">
         <v>17</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K35">
-        <v>0.03246753246753246</v>
-      </c>
-      <c r="L35">
-        <v>20</v>
-      </c>
       <c r="M35">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2331,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2339,13 +2336,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3571428571428572</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="C36">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D36">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2357,19 +2354,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K36">
-        <v>0.02932551319648094</v>
+        <v>0.02361751152073733</v>
       </c>
       <c r="L36">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="M36">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2381,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>331</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2389,7 +2386,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3461538461538461</v>
+        <v>0.375</v>
       </c>
       <c r="C37">
         <v>9</v>
@@ -2407,31 +2404,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K37">
-        <v>0.02702702702702703</v>
+        <v>0.01794871794871795</v>
       </c>
       <c r="L37">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M37">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N37">
-        <v>0.73</v>
+        <v>0.93</v>
       </c>
       <c r="O37">
-        <v>0.27</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>288</v>
+        <v>766</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2439,13 +2436,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2564102564102564</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C38">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D38">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2457,31 +2454,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>58</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K38">
-        <v>0.02361751152073733</v>
-      </c>
-      <c r="L38">
-        <v>41</v>
-      </c>
-      <c r="M38">
-        <v>41</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>1695</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2489,13 +2462,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.25</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2507,31 +2480,33 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>21</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K39">
-        <v>0.01025641025641026</v>
-      </c>
-      <c r="L39">
-        <v>8</v>
-      </c>
-      <c r="M39">
-        <v>9</v>
-      </c>
-      <c r="N39">
-        <v>0.89</v>
-      </c>
-      <c r="O39">
-        <v>0.11</v>
-      </c>
-      <c r="P39" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39">
-        <v>772</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.2051282051282051</v>
+      </c>
+      <c r="C40">
+        <v>16</v>
+      </c>
+      <c r="D40">
+        <v>16</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
